--- a/import_test.xlsx
+++ b/import_test.xlsx
@@ -29,15 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>embed.object-0</t>
-  </si>
-  <si>
-    <t>embed.thing-0</t>
-  </si>
-  <si>
-    <t>embed.stuff-0</t>
-  </si>
-  <si>
     <t>thing</t>
   </si>
   <si>
@@ -63,6 +54,15 @@
   </si>
   <si>
     <t>piece</t>
+  </si>
+  <si>
+    <t>embed.object</t>
+  </si>
+  <si>
+    <t>embed.thing</t>
+  </si>
+  <si>
+    <t>embed.stuff</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -395,42 +395,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
